--- a/excel_key_comparison.xlsx
+++ b/excel_key_comparison.xlsx
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
